--- a/average_wait_times.xlsx
+++ b/average_wait_times.xlsx
@@ -455,10 +455,10 @@
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1201868930124635</v>
+        <v>0.2323647693276648</v>
       </c>
       <c r="C2" t="n">
-        <v>1.201868930124635</v>
+        <v>2.323647693276648</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>100</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1441229993575634</v>
+        <v>0.2301173058406173</v>
       </c>
       <c r="C3" t="n">
-        <v>1.441229993575634</v>
+        <v>2.301173058406173</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>500</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1434563977152438</v>
+        <v>0.226361444677274</v>
       </c>
       <c r="C4" t="n">
-        <v>1.434563977152438</v>
+        <v>2.26361444677274</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>1000</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1412621321245371</v>
+        <v>0.226658804331953</v>
       </c>
       <c r="C5" t="n">
-        <v>1.412621321245371</v>
+        <v>2.266588043319531</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>2000</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1429508380968736</v>
+        <v>0.2240507712639785</v>
       </c>
       <c r="C6" t="n">
-        <v>1.429508380968736</v>
+        <v>2.240507712639785</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>2500</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1425206960334755</v>
+        <v>0.2243661422042495</v>
       </c>
       <c r="C7" t="n">
-        <v>1.425206960334755</v>
+        <v>2.243661422042495</v>
       </c>
     </row>
   </sheetData>
